--- a/song_alter_test.xlsx
+++ b/song_alter_test.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,15 +54,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -141,17 +141,17 @@
     <author>Ricebot</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A1" shapeId="0">
       <text>
         <t>Text</t>
       </text>
     </comment>
-    <comment ref="B1" authorId="1" shapeId="0">
+    <comment authorId="1" ref="B1" shapeId="0">
       <text>
         <t>1193015946</t>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" shapeId="0">
+    <comment authorId="1" ref="C1" shapeId="0">
       <text>
         <t>1193015946</t>
       </text>
@@ -452,7 +452,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" sqref="B2"/>
+      <selection activeCell="C3" pane="topLeft" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -470,7 +470,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>albida8</t>
+          <t>albida无力</t>
         </is>
       </c>
     </row>
@@ -613,7 +613,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
--- a/song_alter_test.xlsx
+++ b/song_alter_test.xlsx
@@ -156,6 +156,16 @@
         <t>1193015946</t>
       </text>
     </comment>
+    <comment authorId="1" ref="D1" shapeId="0">
+      <text>
+        <t>1193015946</t>
+      </text>
+    </comment>
+    <comment authorId="1" ref="E1" shapeId="0">
+      <text>
+        <t>1193015946</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -449,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" pane="topLeft" sqref="C3"/>
@@ -473,6 +483,16 @@
           <t>albida无力</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>无力</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>albida无力混音</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
